--- a/RateCard_TestData.xlsx
+++ b/RateCard_TestData.xlsx
@@ -5,71 +5,76 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="927" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CRUDRateCard" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="RateCard" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>WebData@123</t>
-  </si>
-  <si>
-    <t>AddOn Test Suite</t>
-  </si>
-  <si>
-    <t>RateCard1</t>
-  </si>
-  <si>
-    <t>New RateCard1</t>
-  </si>
-  <si>
-    <t>/RateCard_files/aRateCardTest.csv</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>RateCard2</t>
-  </si>
-  <si>
-    <t>/RateCard_files/aRateCardTest.csv.zip</t>
-  </si>
-  <si>
-    <t>RateCard3</t>
-  </si>
-  <si>
-    <t>/RateCard_files/aRateCardTest.csv.tar</t>
-  </si>
-  <si>
-    <t>RateCard4</t>
-  </si>
-  <si>
-    <t>/RateCard_files/aRateCardTest.csv.bz2</t>
-  </si>
-  <si>
-    <t>There has been an error:</t>
-  </si>
-  <si>
-    <t>RateCard5</t>
-  </si>
-  <si>
-    <t>/RateCard_files/test_doc.txt.zip</t>
-  </si>
-  <si>
-    <t>RateCard6</t>
-  </si>
-  <si>
-    <t>/RateCard_files/MediationTest.csv.zip</t>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebData@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Data 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RateCard1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test RateCard1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/RateCard_files/aRateCardTest.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RateCard2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/RateCard_files/aRateCardTest.csv.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RateCard3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/RateCard_files/aRateCardTest.csv.tar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RateCard4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/RateCard_files/aRateCardTest.csv.bz2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There has been an error:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RateCard5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/RateCard_files/test_doc.txt.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RateCard6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/RateCard_files/MediationTest.csv.zip</t>
   </si>
 </sst>
 </file>
@@ -77,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="4">
@@ -182,19 +187,18 @@
   </sheetPr>
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8851851851852"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8592592592593"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8851851851852"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2296296296296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.3037037037037"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,29 +240,29 @@
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.35185185185185"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9148148148148"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0259259259259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2851851851852"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0925925925926"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3925925925926"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.85555555555556"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.0185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.37777777777778"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.0185185185185"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4592592592593"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.1185185185185"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5703703703704"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.97037037037037"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.5740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.37037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2074074074074"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.1037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.6148148148148"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="4.9962962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.56666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.7407407407407"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.8555555555556"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.9740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.52592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
